--- a/public/template_xls/template_baremetal.xlsx
+++ b/public/template_xls/template_baremetal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankbtn-my.sharepoint.com/personal/ivan20057_btn_co_id/Documents/Documents/IES Portal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="8_{E4EF04D0-9D9C-46D9-B554-F86F215F04D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8CED1B1-53C9-4E85-858C-9CD08BB2D53A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237CC4F6-082F-4B46-AB96-B586F1E7D46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Kode Aset</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Rak Unit</t>
   </si>
   <si>
-    <t>Vendor Software ID</t>
-  </si>
-  <si>
     <t>Merek</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>End of Service</t>
   </si>
   <si>
-    <t>Nomor PKS</t>
-  </si>
-  <si>
     <t>APP</t>
   </si>
   <si>
@@ -137,13 +131,13 @@
     <t>Lenovo Server 1</t>
   </si>
   <si>
-    <t>Vendor Hardware ID</t>
-  </si>
-  <si>
-    <t>PKS-1</t>
-  </si>
-  <si>
     <t>Memory (Gb)</t>
+  </si>
+  <si>
+    <t>Kontrak Vendor Software ID</t>
+  </si>
+  <si>
+    <t>Kontrak Vendor Hardware ID</t>
   </si>
 </sst>
 </file>
@@ -227,10 +221,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270B27F8-6628-4531-966A-4408389C0925}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,10 +550,9 @@
     <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -595,69 +584,66 @@
         <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>33</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="U1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -672,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -684,25 +670,22 @@
         <v>3000</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R2">
         <v>16</v>
       </c>
       <c r="S2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="T2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U2" s="1">
         <v>44929</v>
       </c>
       <c r="V2" s="1">
         <v>46756</v>
-      </c>
-      <c r="W2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/public/template_xls/template_baremetal.xlsx
+++ b/public/template_xls/template_baremetal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankbtn-my.sharepoint.com/personal/ivan20057_btn_co_id/Documents/Documents/IES Portal/template_xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237CC4F6-082F-4B46-AB96-B586F1E7D46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{237CC4F6-082F-4B46-AB96-B586F1E7D46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{078F3216-7F16-4421-8A1D-9A0365194579}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Kode Aset</t>
   </si>
@@ -74,24 +74,9 @@
     <t>Tipe</t>
   </si>
   <si>
-    <t>Processor</t>
-  </si>
-  <si>
-    <t>Start of Service</t>
-  </si>
-  <si>
-    <t>End of Service</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
     <t>Lenovo</t>
   </si>
   <si>
-    <t>Intel Celeron X213</t>
-  </si>
-  <si>
     <t>Tipe Disk</t>
   </si>
   <si>
@@ -138,6 +123,79 @@
   </si>
   <si>
     <t>Kontrak Vendor Hardware ID</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>Gambar Server</t>
+  </si>
+  <si>
+    <t>default_gambar_server.jpg</t>
+  </si>
+  <si>
+    <t>Username OS</t>
+  </si>
+  <si>
+    <t>Password OS</t>
+  </si>
+  <si>
+    <t>Username ILO</t>
+  </si>
+  <si>
+    <t>Password ILO</t>
+  </si>
+  <si>
+    <t>usernameos</t>
+  </si>
+  <si>
+    <t>passwordos</t>
+  </si>
+  <si>
+    <t>usernameilo</t>
+  </si>
+  <si>
+    <t>passwordilo</t>
+  </si>
+  <si>
+    <t>Core per Socket</t>
+  </si>
+  <si>
+    <t>Jumlah Socket</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Note :
+- Kolom isian tidak boleh kosong, kecuali kolom Username OS, Password OS, Username ILO dan Password ILO
+- Kolom Gambar Server, isi dengan default_gambar_server.jpg
+- Aplikasi ID sesuai dengan ID yang terdaftar
+- Rak ID sesuai dengan ID yang terdaftar
+- Kontrak Vendor Software ID sesuai dengan ID yang terdaftar
+- Kontrak Vendor Hardware ID sesuai dengan ID yang terdaftar
+- OS ID sesuai dengan ID yang terdaftar
+- Pastikan seluruh kolom yang kosong </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dihapus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, dengan cara blok kolom yang kosong kemudian klik kanan -&gt; pilih delete  -&gt; ok</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -147,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +235,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -195,20 +281,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -520,176 +626,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270B27F8-6628-4531-966A-4408389C0925}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA3" sqref="A3:AA1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="57" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:27" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>12</v>
+      <c r="S1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2">
+      <c r="N2" s="1">
         <v>1</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
         <v>3000</v>
       </c>
-      <c r="Q2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2">
+      <c r="U2" t="s">
         <v>16</v>
       </c>
-      <c r="S2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="1">
-        <v>44929</v>
-      </c>
-      <c r="V2" s="1">
-        <v>46756</v>
+      <c r="V2">
+        <v>16</v>
+      </c>
+      <c r="W2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{2A7B7E70-BA6E-43DD-966D-F8931FC45C19}">
+      <formula1>"Server,Storage,San Switch"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{C6AEAB60-2E9D-4116-B18B-C2FDCD40347E}">
+      <formula1>"WEB,APP,DB,MNGMT,DMZ,DEV"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/template_xls/template_baremetal.xlsx
+++ b/public/template_xls/template_baremetal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankbtn-my.sharepoint.com/personal/ivan20057_btn_co_id/Documents/Documents/IES Portal/template_xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan20057\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{237CC4F6-082F-4B46-AB96-B586F1E7D46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{078F3216-7F16-4421-8A1D-9A0365194579}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950AC580-433B-459A-9D03-08DF4ED59EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Kode Aset</t>
   </si>
@@ -196,6 +196,9 @@
       </rPr>
       <t>, dengan cara blok kolom yang kosong kemudian klik kanan -&gt; pilih delete  -&gt; ok</t>
     </r>
+  </si>
+  <si>
+    <t>Logical Processor</t>
   </si>
 </sst>
 </file>
@@ -626,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270B27F8-6628-4531-966A-4408389C0925}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA3" sqref="A3:AA1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,12 +660,13 @@
     <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="57" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" hidden="1"/>
+    <col min="26" max="26" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="57" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -738,14 +742,17 @@
       <c r="Y1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -821,7 +828,10 @@
       <c r="Y2" s="10">
         <v>4</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="10">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>31</v>
       </c>
     </row>

--- a/public/template_xls/template_baremetal.xlsx
+++ b/public/template_xls/template_baremetal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan20057\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankbtn-my.sharepoint.com/personal/ivan20057_btn_co_id/Documents/Documents/IES Portal/template_xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950AC580-433B-459A-9D03-08DF4ED59EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{950AC580-433B-459A-9D03-08DF4ED59EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63A64499-6488-4AA4-BDE4-7E9BBA15A366}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Kode Aset</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Tipe</t>
   </si>
   <si>
-    <t>Lenovo</t>
-  </si>
-  <si>
     <t>Tipe Disk</t>
   </si>
   <si>
@@ -92,30 +89,18 @@
     <t>OS ID</t>
   </si>
   <si>
-    <t>KODEASET1</t>
-  </si>
-  <si>
-    <t>SN1</t>
-  </si>
-  <si>
     <t>172.1.1.1</t>
   </si>
   <si>
     <t>172.1.1.2</t>
   </si>
   <si>
-    <t>HOSTNAME1</t>
-  </si>
-  <si>
     <t>Server</t>
   </si>
   <si>
     <t>Disk (Gb)</t>
   </si>
   <si>
-    <t>Lenovo Server 1</t>
-  </si>
-  <si>
     <t>Memory (Gb)</t>
   </si>
   <si>
@@ -162,17 +147,30 @@
   </si>
   <si>
     <t>Jumlah Socket</t>
+  </si>
+  <si>
+    <t>Logical Processor</t>
+  </si>
+  <si>
+    <t>Kode Aset Contoh</t>
+  </si>
+  <si>
+    <t>Serial Number Contoh</t>
+  </si>
+  <si>
+    <t>Hostname Contoh</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">*Note :
 - Kolom isian tidak boleh kosong, kecuali kolom Username OS, Password OS, Username ILO dan Password ILO
-- Kolom Gambar Server, isi dengan default_gambar_server.jpg
-- Aplikasi ID sesuai dengan ID yang terdaftar
-- Rak ID sesuai dengan ID yang terdaftar
-- Kontrak Vendor Software ID sesuai dengan ID yang terdaftar
-- Kontrak Vendor Hardware ID sesuai dengan ID yang terdaftar
-- OS ID sesuai dengan ID yang terdaftar
+- Kolom Gambar Server, diisi dengan default_gambar_server.jpg
+- Aplikasi ID diisi sesuai dengan ID yang terdaftar
+- Rak ID diisi sesuai dengan ID yang terdaftar
+- Kontrak Vendor Software ID diisi sesuai dengan ID yang terdaftar
+- Kontrak Vendor Hardware ID diisi sesuai dengan ID yang terdaftar
+- OS ID diisi sesuai dengan ID yang terdaftar
+- Jenis Appliance dan Jenis App diisi dengan cara memilih dropdown yang sudah tersedia
 - Pastikan seluruh kolom yang kosong </t>
     </r>
     <r>
@@ -196,9 +194,6 @@
       </rPr>
       <t>, dengan cara blok kolom yang kosong kemudian klik kanan -&gt; pilih delete  -&gt; ok</t>
     </r>
-  </si>
-  <si>
-    <t>Logical Processor</t>
   </si>
 </sst>
 </file>
@@ -288,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -314,6 +309,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,44 +627,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270B27F8-6628-4531-966A-4408389C0925}">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:XFD2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="57" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" hidden="1"/>
+    <col min="27" max="27" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="3.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="6" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -676,31 +677,31 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="11" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -710,10 +711,10 @@
         <v>9</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>10</v>
@@ -722,72 +723,72 @@
         <v>11</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -802,25 +803,25 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="S2">
         <v>1</v>
       </c>
       <c r="T2">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="U2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V2">
         <v>16</v>
       </c>
       <c r="W2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X2">
         <v>2</v>
@@ -832,7 +833,7 @@
         <v>16</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
